--- a/Assessment_Defect Management.xlsx
+++ b/Assessment_Defect Management.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7650"/>
+    <workbookView windowWidth="20490" windowHeight="7650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Test scenario" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="199">
   <si>
     <t xml:space="preserve">Test scenario </t>
   </si>
@@ -635,6 +635,136 @@
   </si>
   <si>
     <t>Screenshot</t>
+  </si>
+  <si>
+    <t>BUG ID-1</t>
+  </si>
+  <si>
+    <t>It displays that the system shows the message "Password updated Successfully" rather than showing the error if user enters the same old password in new password field to change the password</t>
+  </si>
+  <si>
+    <t>Vivo Y91</t>
+  </si>
+  <si>
+    <t>1. Open MenuBox             2. Open Profile Tab           3. Click Change Password Link                               4. Enter Old and New Password in fields</t>
+  </si>
+  <si>
+    <r>
+      <t>Old Pass:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Tm@12345
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> New Pass:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Tm@12345</t>
+    </r>
+  </si>
+  <si>
+    <t>Security Defect</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1d3ni5QOZj7n19jrGdek3_o8qJ8ZLGPl8/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>BUG ID-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It shows that the Email id is already given once while registration, then after also system asking to enter email id while Email Id verification process </t>
+  </si>
+  <si>
+    <t>1. Open Application           2. Click On Email verification Link</t>
+  </si>
+  <si>
+    <t>Click on Email verification link at Login page</t>
+  </si>
+  <si>
+    <t>Functionality Defect</t>
+  </si>
+  <si>
+    <t>Minor</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1DXoHOdWz-nJQdjMy01S9uq9yUYV5HDbb/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>BUG ID-3</t>
+  </si>
+  <si>
+    <t>It shows that the at Profile page the wrong data is accepted by system as data validation is missing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open MenuBox             2. Open Profile Tab           3. Enter the wrong details in DOB, aadhar number, address                               </t>
+  </si>
+  <si>
+    <t>DOB:01-04-2000 Aadhar:345612349876 address:101,arjun grace, opp. Telephone Exchange,gota,Mumbai, Maharashtra, India - 420001</t>
+  </si>
+  <si>
+    <t>Database Defect</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1nrHnzMNwNA71VB79HaKMk186rpI69t-n/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>BUG ID-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It shows that the Wrong Email Id is accepted when user wants to change their Email Id </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open MenuBox             2. Open Profile Tab           3. Click on Change Email Address                            </t>
+  </si>
+  <si>
+    <t>Enter Wrong Email In New Email field</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1t24c6fm0EGkx9GFVHYPiItbY_08MgxC7/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>BUG ID-5</t>
+  </si>
+  <si>
+    <t>It shows that the at Homepage of App the slider link is not working while "More Detail" button is pressed</t>
+  </si>
+  <si>
+    <t>1. Login to SMC App with Id &amp; Password                      2. See the slider at homepage</t>
+  </si>
+  <si>
+    <t>Click on First Slider at Homepage</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1DirzLSuSgY2wl-XGOUFNg0iVQnBGqjca/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -647,7 +777,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -656,11 +786,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <u/>
-      <sz val="16"/>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="Arial Black"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
       <charset val="134"/>
     </font>
     <font>
@@ -726,12 +901,6 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -1132,6 +1301,148 @@
       <left style="medium">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
       <top style="medium">
         <color auto="1"/>
@@ -1149,10 +1460,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1178,16 +1509,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
+      <left/>
+      <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
+      <top/>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1199,9 +1526,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1217,7 +1542,7 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1232,21 +1557,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -1256,154 +1566,13 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1526,390 +1695,424 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2390,8 +2593,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="334010" y="7391400"/>
-          <a:ext cx="4314825" cy="5286375"/>
+          <a:off x="334010" y="7400925"/>
+          <a:ext cx="4314825" cy="5276850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2432,7 +2635,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6896100" y="7639050"/>
+          <a:off x="6896100" y="7648575"/>
           <a:ext cx="7829550" cy="5372100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2709,8 +2912,8 @@
   <sheetPr/>
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
@@ -2720,250 +2923,250 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="69"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="83"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="70"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="72"/>
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="86"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="72"/>
-    </row>
-    <row r="4" s="66" customFormat="1" ht="18.75" spans="1:3">
-      <c r="A4" s="73" t="s">
+      <c r="A3" s="84"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="86"/>
+    </row>
+    <row r="4" s="80" customFormat="1" ht="18.75" spans="1:3">
+      <c r="A4" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="89" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" ht="47.25" spans="1:3">
-      <c r="A5" s="76">
+      <c r="A5" s="90">
         <v>1</v>
       </c>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="92" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" ht="47.25" spans="1:3">
-      <c r="A6" s="76">
+      <c r="A6" s="90">
         <v>2</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="92" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="47.25" spans="1:3">
-      <c r="A7" s="76">
+      <c r="A7" s="90">
         <v>3</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="79" t="s">
+      <c r="C7" s="93" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" ht="31.5" spans="1:3">
-      <c r="A8" s="76">
+      <c r="A8" s="90">
         <v>4</v>
       </c>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="92" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" ht="47.25" spans="1:3">
-      <c r="A9" s="76">
+      <c r="A9" s="90">
         <v>5</v>
       </c>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="78" t="s">
+      <c r="C9" s="92" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="1:3">
-      <c r="A10" s="76">
+      <c r="A10" s="90">
         <v>6</v>
       </c>
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="79" t="s">
+      <c r="C10" s="93" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" ht="47.25" spans="1:3">
-      <c r="A11" s="76">
+      <c r="A11" s="90">
         <v>7</v>
       </c>
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="78" t="s">
+      <c r="C11" s="92" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" ht="63" spans="1:3">
-      <c r="A12" s="76">
+      <c r="A12" s="90">
         <v>8</v>
       </c>
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="78" t="s">
+      <c r="C12" s="92" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" ht="31.5" spans="1:3">
-      <c r="A13" s="76">
+      <c r="A13" s="90">
         <v>9</v>
       </c>
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="78" t="s">
+      <c r="C13" s="92" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" ht="63" spans="1:3">
-      <c r="A14" s="76">
+      <c r="A14" s="90">
         <v>10</v>
       </c>
-      <c r="B14" s="77" t="s">
+      <c r="B14" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="78" t="s">
+      <c r="C14" s="92" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" ht="63" spans="1:3">
-      <c r="A15" s="76">
+      <c r="A15" s="90">
         <v>11</v>
       </c>
-      <c r="B15" s="80" t="s">
+      <c r="B15" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="78" t="s">
+      <c r="C15" s="92" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" ht="63" spans="1:3">
-      <c r="A16" s="76">
+      <c r="A16" s="90">
         <v>12</v>
       </c>
-      <c r="B16" s="80" t="s">
+      <c r="B16" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="78" t="s">
+      <c r="C16" s="92" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" ht="63" spans="1:3">
-      <c r="A17" s="76">
+      <c r="A17" s="90">
         <v>13</v>
       </c>
-      <c r="B17" s="77" t="s">
+      <c r="B17" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="78" t="s">
+      <c r="C17" s="92" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" ht="15.75" spans="1:3">
-      <c r="A18" s="76">
+      <c r="A18" s="90">
         <v>14</v>
       </c>
-      <c r="B18" s="80" t="s">
+      <c r="B18" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="79" t="s">
+      <c r="C18" s="93" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" ht="78.75" spans="1:3">
-      <c r="A19" s="76">
+      <c r="A19" s="90">
         <v>15</v>
       </c>
-      <c r="B19" s="77" t="s">
+      <c r="B19" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="81" t="s">
+      <c r="C19" s="95" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" ht="47.25" spans="1:3">
-      <c r="A20" s="76">
+      <c r="A20" s="90">
         <v>16</v>
       </c>
-      <c r="B20" s="77" t="s">
+      <c r="B20" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="79" t="s">
+      <c r="C20" s="93" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="21" ht="47.25" spans="1:3">
-      <c r="A21" s="76">
+      <c r="A21" s="90">
         <v>17</v>
       </c>
-      <c r="B21" s="80" t="s">
+      <c r="B21" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="81" t="s">
+      <c r="C21" s="95" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="22" ht="47.25" spans="1:3">
-      <c r="A22" s="76">
+      <c r="A22" s="90">
         <v>18</v>
       </c>
-      <c r="B22" s="77" t="s">
+      <c r="B22" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="78" t="s">
+      <c r="C22" s="92" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="23" ht="47.25" spans="1:3">
-      <c r="A23" s="76">
+      <c r="A23" s="90">
         <v>19</v>
       </c>
-      <c r="B23" s="77" t="s">
+      <c r="B23" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="79" t="s">
+      <c r="C23" s="93" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="24" ht="79.5" spans="1:3">
-      <c r="A24" s="82">
+      <c r="A24" s="96">
         <v>20</v>
       </c>
-      <c r="B24" s="83" t="s">
+      <c r="B24" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="84" t="s">
+      <c r="C24" s="98" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2982,7 +3185,7 @@
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2998,997 +3201,997 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="65"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="79"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="65"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="79"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="65"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="79"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="65"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="79"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="65"/>
-    </row>
-    <row r="6" s="40" customFormat="1" ht="31.5" spans="1:8">
-      <c r="A6" s="44" t="s">
+      <c r="A5" s="57"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="79"/>
+    </row>
+    <row r="6" s="54" customFormat="1" ht="31.5" spans="1:8">
+      <c r="A6" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="44" t="s">
+      <c r="G6" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="44" t="s">
+      <c r="H6" s="58" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" ht="105" spans="1:8">
-      <c r="A7" s="45">
+      <c r="A7" s="59">
         <v>1</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="46" t="s">
+      <c r="F7" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="49" t="s">
+      <c r="G7" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="45" t="s">
+      <c r="H7" s="59" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
     </row>
     <row r="9" ht="75" spans="1:8">
-      <c r="A9" s="45">
+      <c r="A9" s="59">
         <v>201</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="50" t="s">
+      <c r="F9" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="51" t="s">
+      <c r="G9" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="45" t="s">
+      <c r="H9" s="59" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="10" ht="75" spans="1:8">
-      <c r="A10" s="45">
+      <c r="A10" s="59">
         <v>201</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="52" t="s">
+      <c r="E10" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="52" t="s">
+      <c r="F10" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="51" t="s">
+      <c r="G10" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="45" t="s">
+      <c r="H10" s="59" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="11" ht="75" spans="1:8">
-      <c r="A11" s="45">
+      <c r="A11" s="59">
         <v>201</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="52" t="s">
+      <c r="E11" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="46" t="s">
+      <c r="F11" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="G11" s="51" t="s">
+      <c r="G11" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="45" t="s">
+      <c r="H11" s="59" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12" ht="60" spans="1:8">
-      <c r="A12" s="45">
+      <c r="A12" s="59">
         <v>202</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="53" t="s">
+      <c r="E12" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="52" t="s">
+      <c r="F12" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="G12" s="51" t="s">
+      <c r="G12" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="H12" s="45" t="s">
+      <c r="H12" s="59" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13" ht="60" spans="1:8">
-      <c r="A13" s="45">
+      <c r="A13" s="59">
         <v>203</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="52" t="s">
+      <c r="D13" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="54" t="s">
+      <c r="E13" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="46" t="s">
+      <c r="F13" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="G13" s="51" t="s">
+      <c r="G13" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="H13" s="45" t="s">
+      <c r="H13" s="59" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14" ht="60" spans="1:8">
-      <c r="A14" s="45"/>
-      <c r="B14" s="52" t="s">
+      <c r="A14" s="59"/>
+      <c r="B14" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="52" t="s">
+      <c r="D14" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="46" t="s">
+      <c r="F14" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="G14" s="51" t="s">
+      <c r="G14" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="H14" s="45" t="s">
+      <c r="H14" s="59" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15" ht="60" spans="1:8">
-      <c r="A15" s="45"/>
-      <c r="B15" s="52" t="s">
+      <c r="A15" s="59"/>
+      <c r="B15" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="52" t="s">
+      <c r="E15" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="F15" s="52" t="s">
+      <c r="F15" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="G15" s="51" t="s">
+      <c r="G15" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="45" t="s">
+      <c r="H15" s="59" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="16" ht="60" spans="1:8">
-      <c r="A16" s="45">
+      <c r="A16" s="59">
         <v>204</v>
       </c>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="52" t="s">
+      <c r="E16" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="F16" s="46" t="s">
+      <c r="F16" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="G16" s="51" t="s">
+      <c r="G16" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="45" t="s">
+      <c r="H16" s="59" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="17" ht="60" spans="1:8">
-      <c r="A17" s="45"/>
-      <c r="B17" s="52" t="s">
+      <c r="A17" s="59"/>
+      <c r="B17" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="52" t="s">
+      <c r="D17" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="52" t="s">
+      <c r="E17" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="46" t="s">
+      <c r="F17" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="G17" s="51" t="s">
+      <c r="G17" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="H17" s="45" t="s">
+      <c r="H17" s="59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" s="41" customFormat="1" ht="60" spans="1:8">
-      <c r="A18" s="55"/>
-      <c r="B18" s="56" t="s">
+    <row r="18" s="55" customFormat="1" ht="60" spans="1:8">
+      <c r="A18" s="69"/>
+      <c r="B18" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="52" t="s">
+      <c r="D18" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="E18" s="57" t="s">
+      <c r="E18" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="F18" s="46" t="s">
+      <c r="F18" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="G18" s="51" t="s">
+      <c r="G18" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="H18" s="45" t="s">
+      <c r="H18" s="59" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="19" ht="60" spans="1:8">
-      <c r="A19" s="45">
+      <c r="A19" s="59">
         <v>205</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="52" t="s">
+      <c r="D19" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="E19" s="45" t="s">
+      <c r="E19" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="45" t="s">
+      <c r="F19" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="G19" s="51" t="s">
+      <c r="G19" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="45" t="s">
+      <c r="H19" s="59" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="20" ht="60" spans="1:8">
-      <c r="A20" s="45">
+      <c r="A20" s="59">
         <v>206</v>
       </c>
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="46" t="s">
+      <c r="C20" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="52" t="s">
+      <c r="D20" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="E20" s="58">
+      <c r="E20" s="72">
         <v>37255</v>
       </c>
-      <c r="F20" s="52" t="s">
+      <c r="F20" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="G20" s="51" t="s">
+      <c r="G20" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="H20" s="45" t="s">
+      <c r="H20" s="59" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21" ht="60" spans="1:8">
-      <c r="A21" s="45">
+      <c r="A21" s="59">
         <v>207</v>
       </c>
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="46" t="s">
+      <c r="C21" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="52" t="s">
+      <c r="D21" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="E21" s="58">
+      <c r="E21" s="72">
         <v>44697</v>
       </c>
-      <c r="F21" s="52" t="s">
+      <c r="F21" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="G21" s="51" t="s">
+      <c r="G21" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="H21" s="45" t="s">
+      <c r="H21" s="59" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="22" ht="60" spans="1:8">
-      <c r="A22" s="45">
+      <c r="A22" s="59">
         <v>208</v>
       </c>
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="52" t="s">
+      <c r="D22" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="E22" s="53" t="s">
+      <c r="E22" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="52" t="s">
+      <c r="F22" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="G22" s="51" t="s">
+      <c r="G22" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="H22" s="45" t="s">
+      <c r="H22" s="59" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="45"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
+      <c r="A23" s="59"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
     </row>
     <row r="24" ht="75" spans="1:8">
-      <c r="A24" s="45">
+      <c r="A24" s="59">
         <v>301</v>
       </c>
-      <c r="B24" s="52" t="s">
+      <c r="B24" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="52" t="s">
+      <c r="D24" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="E24" s="53" t="s">
+      <c r="E24" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="F24" s="52" t="s">
+      <c r="F24" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="G24" s="51" t="s">
+      <c r="G24" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="H24" s="45" t="s">
+      <c r="H24" s="59" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" ht="60" spans="1:8">
-      <c r="A25" s="45">
+      <c r="A25" s="59">
         <v>302</v>
       </c>
-      <c r="B25" s="52" t="s">
+      <c r="B25" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="46" t="s">
+      <c r="C25" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="52" t="s">
+      <c r="D25" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="E25" s="53" t="s">
+      <c r="E25" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="52" t="s">
+      <c r="F25" s="66" t="s">
         <v>105</v>
       </c>
-      <c r="G25" s="51" t="s">
+      <c r="G25" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="H25" s="45" t="s">
+      <c r="H25" s="59" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="26" ht="60" spans="1:8">
-      <c r="A26" s="45">
+      <c r="A26" s="59">
         <v>303</v>
       </c>
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="46" t="s">
+      <c r="C26" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="52" t="s">
+      <c r="D26" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="E26" s="45" t="s">
+      <c r="E26" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="52" t="s">
+      <c r="F26" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="G26" s="51" t="s">
+      <c r="G26" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="H26" s="45" t="s">
+      <c r="H26" s="59" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="27" ht="60" spans="1:8">
-      <c r="A27" s="45">
+      <c r="A27" s="59">
         <v>304</v>
       </c>
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="46" t="s">
+      <c r="C27" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="52" t="s">
+      <c r="D27" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="E27" s="53" t="s">
+      <c r="E27" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="52" t="s">
+      <c r="F27" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="G27" s="51" t="s">
+      <c r="G27" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="45" t="s">
+      <c r="H27" s="59" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="28" ht="60" spans="1:8">
-      <c r="A28" s="45">
+      <c r="A28" s="59">
         <v>305</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="B28" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="C28" s="46" t="s">
+      <c r="C28" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="52" t="s">
+      <c r="D28" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="E28" s="53" t="s">
+      <c r="E28" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="52" t="s">
+      <c r="F28" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="G28" s="45" t="s">
+      <c r="G28" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="H28" s="45" t="s">
+      <c r="H28" s="59" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="45"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
+      <c r="A29" s="59"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
     </row>
     <row r="30" ht="90" spans="1:8">
-      <c r="A30" s="45">
+      <c r="A30" s="59">
         <v>401</v>
       </c>
-      <c r="B30" s="52" t="s">
+      <c r="B30" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="C30" s="46" t="s">
+      <c r="C30" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="52" t="s">
+      <c r="D30" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="E30" s="45" t="s">
+      <c r="E30" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="F30" s="52" t="s">
+      <c r="F30" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="G30" s="45" t="s">
+      <c r="G30" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="H30" s="45" t="s">
+      <c r="H30" s="59" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="31" ht="60" spans="1:8">
-      <c r="A31" s="45">
+      <c r="A31" s="59">
         <v>402</v>
       </c>
-      <c r="B31" s="52" t="s">
+      <c r="B31" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="C31" s="46" t="s">
+      <c r="C31" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="52" t="s">
+      <c r="D31" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="E31" s="45" t="s">
+      <c r="E31" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="F31" s="52" t="s">
+      <c r="F31" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="G31" s="45" t="s">
+      <c r="G31" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="H31" s="45" t="s">
+      <c r="H31" s="59" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="32" ht="60" spans="1:8">
-      <c r="A32" s="45">
+      <c r="A32" s="59">
         <v>403</v>
       </c>
-      <c r="B32" s="52" t="s">
+      <c r="B32" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="C32" s="46" t="s">
+      <c r="C32" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="52" t="s">
+      <c r="D32" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="E32" s="45" t="s">
+      <c r="E32" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="F32" s="52" t="s">
+      <c r="F32" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="G32" s="45" t="s">
+      <c r="G32" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="H32" s="45" t="s">
+      <c r="H32" s="59" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="33" ht="75" spans="1:8">
-      <c r="A33" s="45">
+      <c r="A33" s="59">
         <v>404</v>
       </c>
-      <c r="B33" s="52" t="s">
+      <c r="B33" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="C33" s="46" t="s">
+      <c r="C33" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="D33" s="52" t="s">
+      <c r="D33" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="E33" s="45" t="s">
+      <c r="E33" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="F33" s="52" t="s">
+      <c r="F33" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="G33" s="45" t="s">
+      <c r="G33" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="H33" s="45" t="s">
+      <c r="H33" s="59" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="34" ht="75" spans="1:8">
-      <c r="A34" s="45">
+      <c r="A34" s="59">
         <v>405</v>
       </c>
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="C34" s="46" t="s">
+      <c r="C34" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="52" t="s">
+      <c r="D34" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="E34" s="45" t="s">
+      <c r="E34" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="F34" s="52" t="s">
+      <c r="F34" s="66" t="s">
         <v>129</v>
       </c>
-      <c r="G34" s="45" t="s">
+      <c r="G34" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="H34" s="45" t="s">
+      <c r="H34" s="59" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="35" ht="75" spans="1:8">
-      <c r="A35" s="45">
+      <c r="A35" s="59">
         <v>406</v>
       </c>
-      <c r="B35" s="52" t="s">
+      <c r="B35" s="66" t="s">
         <v>130</v>
       </c>
-      <c r="C35" s="46" t="s">
+      <c r="C35" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="52" t="s">
+      <c r="D35" s="66" t="s">
         <v>131</v>
       </c>
-      <c r="E35" s="45" t="s">
+      <c r="E35" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="F35" s="52" t="s">
+      <c r="F35" s="66" t="s">
         <v>132</v>
       </c>
-      <c r="G35" s="45" t="s">
+      <c r="G35" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="H35" s="45" t="s">
+      <c r="H35" s="59" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="36" ht="90" spans="1:8">
-      <c r="A36" s="45"/>
-      <c r="B36" s="52" t="s">
+      <c r="A36" s="59"/>
+      <c r="B36" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="C36" s="46" t="s">
+      <c r="C36" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="D36" s="52" t="s">
+      <c r="D36" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="E36" s="52" t="s">
+      <c r="E36" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="F36" s="52" t="s">
+      <c r="F36" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="G36" s="45" t="s">
+      <c r="G36" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="H36" s="45" t="s">
+      <c r="H36" s="59" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="37" ht="90" spans="1:8">
-      <c r="A37" s="45"/>
-      <c r="B37" s="52" t="s">
+      <c r="A37" s="59"/>
+      <c r="B37" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="C37" s="46" t="s">
+      <c r="C37" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="52" t="s">
+      <c r="D37" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="E37" s="45" t="s">
+      <c r="E37" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="F37" s="60" t="s">
+      <c r="F37" s="74" t="s">
         <v>139</v>
       </c>
-      <c r="G37" s="45" t="s">
+      <c r="G37" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="H37" s="45" t="s">
+      <c r="H37" s="59" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="38" ht="60" spans="1:8">
-      <c r="A38" s="45">
+      <c r="A38" s="59">
         <v>407</v>
       </c>
-      <c r="B38" s="52" t="s">
+      <c r="B38" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="C38" s="46" t="s">
+      <c r="C38" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="D38" s="52" t="s">
+      <c r="D38" s="66" t="s">
         <v>141</v>
       </c>
-      <c r="E38" s="45" t="s">
+      <c r="E38" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="F38" s="52" t="s">
+      <c r="F38" s="66" t="s">
         <v>142</v>
       </c>
-      <c r="G38" s="45" t="s">
+      <c r="G38" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="H38" s="45" t="s">
+      <c r="H38" s="59" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="39" ht="60" spans="1:8">
-      <c r="A39" s="45">
+      <c r="A39" s="59">
         <v>408</v>
       </c>
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="C39" s="46" t="s">
+      <c r="C39" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="D39" s="52" t="s">
+      <c r="D39" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="E39" s="45" t="s">
+      <c r="E39" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="F39" s="52" t="s">
+      <c r="F39" s="66" t="s">
         <v>145</v>
       </c>
-      <c r="G39" s="45" t="s">
+      <c r="G39" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="H39" s="45" t="s">
+      <c r="H39" s="59" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="45"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
+      <c r="A40" s="59"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
     </row>
     <row r="41" ht="60" spans="1:8">
-      <c r="A41" s="45">
+      <c r="A41" s="59">
         <v>501</v>
       </c>
-      <c r="B41" s="60" t="s">
+      <c r="B41" s="74" t="s">
         <v>146</v>
       </c>
-      <c r="C41" s="46" t="s">
+      <c r="C41" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="D41" s="52" t="s">
+      <c r="D41" s="66" t="s">
         <v>147</v>
       </c>
-      <c r="E41" s="45" t="s">
+      <c r="E41" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="F41" s="52" t="s">
+      <c r="F41" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="G41" s="45" t="s">
+      <c r="G41" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="H41" s="45" t="s">
+      <c r="H41" s="59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="42" s="42" customFormat="1" ht="60" spans="1:8">
-      <c r="A42" s="61">
+    <row r="42" s="56" customFormat="1" ht="60" spans="1:8">
+      <c r="A42" s="75">
         <v>502</v>
       </c>
-      <c r="B42" s="62" t="s">
+      <c r="B42" s="76" t="s">
         <v>146</v>
       </c>
-      <c r="C42" s="63" t="s">
+      <c r="C42" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="D42" s="64" t="s">
+      <c r="D42" s="78" t="s">
         <v>147</v>
       </c>
-      <c r="E42" s="61" t="s">
+      <c r="E42" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="F42" s="64" t="s">
+      <c r="F42" s="78" t="s">
         <v>149</v>
       </c>
-      <c r="G42" s="64" t="s">
+      <c r="G42" s="78" t="s">
         <v>150</v>
       </c>
-      <c r="H42" s="61" t="s">
+      <c r="H42" s="75" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="45"/>
-      <c r="B43" s="45"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="45"/>
+      <c r="A43" s="59"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="45"/>
-      <c r="B44" s="45"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="45"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="45"/>
+      <c r="A44" s="59"/>
+      <c r="B44" s="59"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="59"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="45"/>
-      <c r="B45" s="45"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="45"/>
+      <c r="A45" s="59"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="59"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="45"/>
-      <c r="B46" s="45"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="45"/>
-      <c r="F46" s="45"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="45"/>
+      <c r="A46" s="59"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="59"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="45"/>
-      <c r="B47" s="45"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="45"/>
-      <c r="H47" s="45"/>
+      <c r="A47" s="59"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59"/>
+      <c r="H47" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4016,622 +4219,622 @@
     <col min="3" max="3" width="90.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="21" customFormat="1" ht="19.5" spans="1:10">
-      <c r="A1" s="22" t="s">
+    <row r="1" s="35" customFormat="1" ht="19.5" spans="1:10">
+      <c r="A1" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="24" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="27"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="27"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="27"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="27"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="27"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="27"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="27"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="27"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="27"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="27"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="27"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="27"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="27"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="27"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="27"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="27"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="27"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="27"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="27"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="27"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="27"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="27"/>
-      <c r="C24" s="27"/>
+      <c r="A24" s="41"/>
+      <c r="C24" s="41"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="27"/>
-      <c r="C25" s="27"/>
+      <c r="A25" s="41"/>
+      <c r="C25" s="41"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="27"/>
-      <c r="C26" s="27"/>
+      <c r="A26" s="41"/>
+      <c r="C26" s="41"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="27"/>
-      <c r="C27" s="27"/>
+      <c r="A27" s="41"/>
+      <c r="C27" s="41"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="27"/>
-      <c r="C28" s="27"/>
+      <c r="A28" s="41"/>
+      <c r="C28" s="41"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="27"/>
-      <c r="C29" s="27"/>
+      <c r="A29" s="41"/>
+      <c r="C29" s="41"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="27"/>
-      <c r="C30" s="27"/>
+      <c r="A30" s="41"/>
+      <c r="C30" s="41"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="27"/>
-      <c r="C31" s="27"/>
+      <c r="A31" s="41"/>
+      <c r="C31" s="41"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="27"/>
-      <c r="C32" s="27"/>
+      <c r="A32" s="41"/>
+      <c r="C32" s="41"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="27"/>
-      <c r="C33" s="27"/>
+      <c r="A33" s="41"/>
+      <c r="C33" s="41"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="27"/>
-      <c r="C34" s="27"/>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="27"/>
-      <c r="C35" s="28"/>
+      <c r="A34" s="41"/>
+      <c r="C34" s="41"/>
+    </row>
+    <row r="35" ht="15.75" spans="1:3">
+      <c r="A35" s="41"/>
+      <c r="C35" s="42"/>
     </row>
     <row r="36" ht="15.75" spans="1:1">
-      <c r="A36" s="28"/>
+      <c r="A36" s="42"/>
     </row>
     <row r="37" ht="15.75"/>
     <row r="38" ht="19.5" spans="1:3">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="44" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="25"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="33"/>
+      <c r="A39" s="39"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="47"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="27"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="36"/>
+      <c r="A40" s="41"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="50"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="27"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="36"/>
+      <c r="A41" s="41"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="50"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="27"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="36"/>
+      <c r="A42" s="41"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="50"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="27"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="36"/>
+      <c r="A43" s="41"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="50"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="27"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="36"/>
+      <c r="A44" s="41"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="50"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="27"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="36"/>
+      <c r="A45" s="41"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="50"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="27"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="36"/>
+      <c r="A46" s="41"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="50"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="27"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="36"/>
+      <c r="A47" s="41"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="49"/>
+      <c r="H47" s="50"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="27"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="36"/>
+      <c r="A48" s="41"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="50"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="27"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="36"/>
+      <c r="A49" s="41"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="50"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="27"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="36"/>
+      <c r="A50" s="41"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="50"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="27"/>
-      <c r="C51" s="34"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="36"/>
+      <c r="A51" s="41"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="50"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="27"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="36"/>
+      <c r="A52" s="41"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="49"/>
+      <c r="H52" s="50"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="27"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="36"/>
+      <c r="A53" s="41"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="49"/>
+      <c r="H53" s="50"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="27"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="36"/>
+      <c r="A54" s="41"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="49"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="49"/>
+      <c r="H54" s="50"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="27"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="36"/>
+      <c r="A55" s="41"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="50"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="27"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="36"/>
+      <c r="A56" s="41"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="50"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="27"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="36"/>
+      <c r="A57" s="41"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="50"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="27"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="36"/>
+      <c r="A58" s="41"/>
+      <c r="C58" s="48"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="49"/>
+      <c r="H58" s="50"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="27"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="35"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="36"/>
-    </row>
-    <row r="60" ht="15.75" spans="1:8">
-      <c r="A60" s="27"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="35"/>
-      <c r="E60" s="35"/>
-      <c r="F60" s="35"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="36"/>
+      <c r="A59" s="41"/>
+      <c r="C59" s="48"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="49"/>
+      <c r="H59" s="50"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="41"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="49"/>
+      <c r="E60" s="49"/>
+      <c r="F60" s="49"/>
+      <c r="G60" s="49"/>
+      <c r="H60" s="50"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="27"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="35"/>
-      <c r="E61" s="35"/>
-      <c r="F61" s="35"/>
-      <c r="G61" s="35"/>
-      <c r="H61" s="36"/>
+      <c r="A61" s="41"/>
+      <c r="C61" s="48"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="49"/>
+      <c r="F61" s="49"/>
+      <c r="G61" s="49"/>
+      <c r="H61" s="50"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="27"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="35"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="36"/>
+      <c r="A62" s="41"/>
+      <c r="C62" s="48"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="49"/>
+      <c r="G62" s="49"/>
+      <c r="H62" s="50"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="27"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="35"/>
-      <c r="E63" s="35"/>
-      <c r="F63" s="35"/>
-      <c r="G63" s="35"/>
-      <c r="H63" s="36"/>
+      <c r="A63" s="41"/>
+      <c r="C63" s="48"/>
+      <c r="D63" s="49"/>
+      <c r="E63" s="49"/>
+      <c r="F63" s="49"/>
+      <c r="G63" s="49"/>
+      <c r="H63" s="50"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="27"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="36"/>
+      <c r="A64" s="41"/>
+      <c r="C64" s="48"/>
+      <c r="D64" s="49"/>
+      <c r="E64" s="49"/>
+      <c r="F64" s="49"/>
+      <c r="G64" s="49"/>
+      <c r="H64" s="50"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="27"/>
-      <c r="C65" s="34"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="35"/>
-      <c r="F65" s="35"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="36"/>
+      <c r="A65" s="41"/>
+      <c r="C65" s="48"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="49"/>
+      <c r="F65" s="49"/>
+      <c r="G65" s="49"/>
+      <c r="H65" s="50"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="27"/>
-      <c r="C66" s="34"/>
-      <c r="D66" s="35"/>
-      <c r="E66" s="35"/>
-      <c r="F66" s="35"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="36"/>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="28"/>
-      <c r="C67" s="34"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="35"/>
-      <c r="H67" s="36"/>
+      <c r="A66" s="41"/>
+      <c r="C66" s="48"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="49"/>
+      <c r="F66" s="49"/>
+      <c r="G66" s="49"/>
+      <c r="H66" s="50"/>
+    </row>
+    <row r="67" ht="15.75" spans="1:8">
+      <c r="A67" s="42"/>
+      <c r="C67" s="48"/>
+      <c r="D67" s="49"/>
+      <c r="E67" s="49"/>
+      <c r="F67" s="49"/>
+      <c r="G67" s="49"/>
+      <c r="H67" s="50"/>
     </row>
     <row r="68" spans="3:8">
-      <c r="C68" s="34"/>
-      <c r="D68" s="35"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="35"/>
-      <c r="G68" s="35"/>
-      <c r="H68" s="36"/>
-    </row>
-    <row r="69" spans="3:8">
-      <c r="C69" s="37"/>
-      <c r="D69" s="38"/>
-      <c r="E69" s="38"/>
-      <c r="F69" s="38"/>
-      <c r="G69" s="38"/>
-      <c r="H69" s="39"/>
+      <c r="C68" s="48"/>
+      <c r="D68" s="49"/>
+      <c r="E68" s="49"/>
+      <c r="F68" s="49"/>
+      <c r="G68" s="49"/>
+      <c r="H68" s="50"/>
+    </row>
+    <row r="69" ht="15.75" spans="3:8">
+      <c r="C69" s="51"/>
+      <c r="D69" s="52"/>
+      <c r="E69" s="52"/>
+      <c r="F69" s="52"/>
+      <c r="G69" s="52"/>
+      <c r="H69" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4649,10 +4852,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -4661,307 +4864,439 @@
     <col min="2" max="2" width="39.8571428571429" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="5" max="5" width="16.4285714285714" customWidth="1"/>
     <col min="6" max="6" width="25.8571428571429" customWidth="1"/>
     <col min="7" max="7" width="15.4285714285714" customWidth="1"/>
     <col min="8" max="8" width="22.4285714285714" customWidth="1"/>
-    <col min="9" max="9" width="17.8571428571429" customWidth="1"/>
+    <col min="9" max="9" width="50.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="15"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="16"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="24"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="17"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="24"/>
     </row>
     <row r="4" ht="56.25" spans="1:9">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="25" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="19"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="19"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="19"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="19"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="19"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="19"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
+    <row r="5" s="1" customFormat="1" ht="131.25" spans="1:11">
+      <c r="A5" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+    </row>
+    <row r="6" ht="93.75" spans="1:11">
+      <c r="A6" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="243.75" spans="1:11">
+      <c r="A7" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="J7" s="30"/>
+      <c r="K7" s="31"/>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="75" spans="1:11">
+      <c r="A8" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="J8" s="30"/>
+      <c r="K8" s="32"/>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="55.5" customHeight="1" spans="1:11">
+      <c r="A9" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="J9" s="30"/>
+      <c r="K9" s="32"/>
+    </row>
+    <row r="10" ht="18.75" spans="1:11">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+    </row>
+    <row r="11" ht="18.75" spans="1:11">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
       <c r="I11" s="19"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="19"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="19"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="19"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="19"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="19"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="19"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="19"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="19"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="19"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="19"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="19"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="19"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="19"/>
-    </row>
-    <row r="25" ht="15.75" spans="1:9">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="20"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
